--- a/teaching/traditional_assets/database/data/pakistan/pakistan_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1245</v>
+        <v>0.0883</v>
       </c>
       <c r="E2">
-        <v>0.10135</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0003491810185082473</v>
+        <v>4.996795477823262e-06</v>
       </c>
       <c r="J2">
-        <v>-0.0002136818757644362</v>
+        <v>3.108038648334505e-06</v>
       </c>
       <c r="K2">
-        <v>1066.577</v>
+        <v>1439.137</v>
       </c>
       <c r="L2">
-        <v>0.2298905054423968</v>
+        <v>0.2698398739992125</v>
       </c>
       <c r="M2">
-        <v>520.562</v>
+        <v>436.682</v>
       </c>
       <c r="N2">
-        <v>0.05607812298013531</v>
+        <v>0.05120807730193724</v>
       </c>
       <c r="O2">
-        <v>0.4880679032081134</v>
+        <v>0.303433238114231</v>
       </c>
       <c r="P2">
-        <v>520.562</v>
+        <v>436.682</v>
       </c>
       <c r="Q2">
-        <v>0.05607812298013531</v>
+        <v>0.05120807730193724</v>
       </c>
       <c r="R2">
-        <v>0.4880679032081134</v>
+        <v>0.303433238114231</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6526.2</v>
+        <v>7486</v>
       </c>
       <c r="V2">
-        <v>0.7030421855474641</v>
+        <v>0.8778554341197992</v>
       </c>
       <c r="W2">
-        <v>0.09800613496932516</v>
+        <v>0.1436253641048622</v>
       </c>
       <c r="X2">
-        <v>0.1650346804893865</v>
+        <v>0.1681074771522405</v>
       </c>
       <c r="Y2">
-        <v>-0.06702854552006134</v>
+        <v>-0.02448211304737832</v>
       </c>
       <c r="Z2">
-        <v>0.3496201243524247</v>
+        <v>0.2178789795841055</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08486032213093334</v>
+        <v>0.07877779689368951</v>
       </c>
       <c r="AC2">
-        <v>-0.08510666910949136</v>
+        <v>-0.07877779689368951</v>
       </c>
       <c r="AD2">
-        <v>22068.047</v>
+        <v>15613.627</v>
       </c>
       <c r="AE2">
-        <v>216.025126676845</v>
+        <v>0.376752953390626</v>
       </c>
       <c r="AF2">
-        <v>22284.07212667685</v>
+        <v>15614.00375295339</v>
       </c>
       <c r="AG2">
-        <v>15757.87212667684</v>
+        <v>8128.003752953391</v>
       </c>
       <c r="AH2">
-        <v>0.7059322202482267</v>
+        <v>0.6467674605521281</v>
       </c>
       <c r="AI2">
-        <v>0.7133511748332084</v>
+        <v>0.6061383037967915</v>
       </c>
       <c r="AJ2">
-        <v>0.6292911007723848</v>
+        <v>0.4880041500454238</v>
       </c>
       <c r="AK2">
-        <v>0.6376511346584298</v>
+        <v>0.4447899223849196</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>530.6732475652278</v>
+        <v>153074.7745098039</v>
       </c>
       <c r="AP2">
-        <v>378.93163704886</v>
+        <v>79686.31130346462</v>
       </c>
     </row>
     <row r="3">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.7040000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.405</v>
+        <v>0.197</v>
       </c>
       <c r="L3">
-        <v>0.03616071428571429</v>
+        <v>0.0195049504950495</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,55 +764,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>29.4</v>
+        <v>49.7</v>
       </c>
       <c r="V3">
-        <v>0.5444444444444444</v>
+        <v>1.002016129032258</v>
       </c>
       <c r="W3">
-        <v>0.04303931987247609</v>
+        <v>0.01894230769230769</v>
       </c>
       <c r="X3">
-        <v>0.06589804058930152</v>
+        <v>0.06213574549596557</v>
       </c>
       <c r="Y3">
-        <v>-0.02285872071682542</v>
+        <v>-0.04319343780365788</v>
       </c>
       <c r="Z3">
-        <v>-0.8415990381725278</v>
+        <v>-0.5328971666754605</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06589697164914456</v>
+        <v>0.0621328698749169</v>
       </c>
       <c r="AC3">
-        <v>-0.06589697164914456</v>
+        <v>-0.0621328698749169</v>
       </c>
       <c r="AD3">
-        <v>0.047</v>
+        <v>0.027</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.047</v>
+        <v>0.027</v>
       </c>
       <c r="AG3">
-        <v>-29.353</v>
+        <v>-49.673</v>
       </c>
       <c r="AH3">
-        <v>0.0008696134845597351</v>
+        <v>0.0005440586777359099</v>
       </c>
       <c r="AI3">
-        <v>0.004498899205513544</v>
+        <v>0.002172688500844934</v>
       </c>
       <c r="AJ3">
-        <v>-1.190936016553739</v>
+        <v>680.4520547945168</v>
       </c>
       <c r="AK3">
-        <v>1.548725795388593</v>
+        <v>1.332680492581761</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Standard Chartered Bank (Pakistan) Limited (KASE:SCBPL)</t>
+          <t>BankIslami Pakistan Limited (KASE:BIPL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0595</v>
+        <v>0.221</v>
       </c>
       <c r="E4">
-        <v>0.0702</v>
+        <v>0.575</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,103 +850,94 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007829558888723007</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004562858387197158</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>95.40000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="L4">
-        <v>0.4038950042337003</v>
+        <v>0.1418636995827538</v>
       </c>
       <c r="M4">
-        <v>78.5</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.1331185348482279</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.8228511530398323</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>78.5</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.1331185348482279</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.8228511530398323</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>237.5</v>
+        <v>119</v>
       </c>
       <c r="V4">
-        <v>0.402747159572664</v>
+        <v>1.430288461538461</v>
       </c>
       <c r="W4">
-        <v>0.1850271528316524</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="X4">
-        <v>0.07787195825974835</v>
+        <v>0.06710991964121769</v>
       </c>
       <c r="Y4">
-        <v>0.1071551945719041</v>
+        <v>0.03230528503714487</v>
       </c>
       <c r="Z4">
-        <v>0.6381140078269969</v>
+        <v>1.630385487528345</v>
       </c>
       <c r="AA4">
-        <v>0.002911623852601406</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07248133937772677</v>
+        <v>0.06546230439609736</v>
       </c>
       <c r="AC4">
-        <v>-0.06956971552512536</v>
+        <v>-0.06546230439609736</v>
       </c>
       <c r="AD4">
-        <v>203.1</v>
+        <v>12.1</v>
       </c>
       <c r="AE4">
-        <v>13.55329095241813</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>216.6532909524181</v>
+        <v>12.1</v>
       </c>
       <c r="AG4">
-        <v>-20.84670904758187</v>
+        <v>-106.9</v>
       </c>
       <c r="AH4">
-        <v>0.2686828383828132</v>
+        <v>0.1269674711437566</v>
       </c>
       <c r="AI4">
-        <v>0.3323651103085905</v>
+        <v>0.08845029239766081</v>
       </c>
       <c r="AJ4">
-        <v>-0.03664689890899409</v>
+        <v>4.510548523206751</v>
       </c>
       <c r="AK4">
-        <v>-0.05031143592383289</v>
+        <v>-6.005617977528091</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>44.53947368421053</v>
-      </c>
-      <c r="AP4">
-        <v>-4.571646720960937</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meezan Bank Limited (KASE:MEBL)</t>
+          <t>Standard Chartered Bank (Pakistan) Limited (KASE:SCBPL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.24</v>
+        <v>0.0655</v>
       </c>
       <c r="E5">
-        <v>0.235</v>
+        <v>0.111</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,34 +969,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0001117844350749782</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.728706164525307e-05</v>
       </c>
       <c r="K5">
-        <v>85.8</v>
+        <v>99.5</v>
       </c>
       <c r="L5">
-        <v>0.2769528728211749</v>
+        <v>0.4173657718120805</v>
       </c>
       <c r="M5">
-        <v>32.6</v>
+        <v>41.1</v>
       </c>
       <c r="N5">
-        <v>0.04128672745694022</v>
+        <v>0.04878338278931751</v>
       </c>
       <c r="O5">
-        <v>0.37995337995338</v>
+        <v>0.4130653266331659</v>
       </c>
       <c r="P5">
-        <v>32.6</v>
+        <v>41.1</v>
       </c>
       <c r="Q5">
-        <v>0.04128672745694022</v>
+        <v>0.04878338278931751</v>
       </c>
       <c r="R5">
-        <v>0.37995337995338</v>
+        <v>0.4130653266331659</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1014,61 +1005,67 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>478.4</v>
+        <v>339.3</v>
       </c>
       <c r="V5">
-        <v>0.6058763931104356</v>
+        <v>0.4027299703264095</v>
       </c>
       <c r="W5">
-        <v>0.266542404473439</v>
+        <v>0.2286305147058824</v>
       </c>
       <c r="X5">
-        <v>0.08049936993410813</v>
+        <v>0.06973211013769344</v>
       </c>
       <c r="Y5">
-        <v>0.1860430345393309</v>
+        <v>0.1588984045681889</v>
       </c>
       <c r="Z5">
-        <v>1.155538977993286</v>
+        <v>1.018469356704851</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>6.852981038840053e-05</v>
       </c>
       <c r="AB5">
-        <v>0.0756028690982596</v>
+        <v>0.06612141458016196</v>
       </c>
       <c r="AC5">
-        <v>-0.0756028690982596</v>
+        <v>-0.06605288476977356</v>
       </c>
       <c r="AD5">
-        <v>353.6</v>
+        <v>186.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.376752953390626</v>
       </c>
       <c r="AF5">
-        <v>353.6</v>
+        <v>186.8767529533906</v>
       </c>
       <c r="AG5">
-        <v>-124.8</v>
+        <v>-152.4232470466094</v>
       </c>
       <c r="AH5">
-        <v>0.3093072078376487</v>
+        <v>0.1815435917094703</v>
       </c>
       <c r="AI5">
-        <v>0.5250185597624351</v>
+        <v>0.2821732034531228</v>
       </c>
       <c r="AJ5">
-        <v>-0.187725631768953</v>
+        <v>-0.220878686891376</v>
       </c>
       <c r="AK5">
-        <v>-0.639671963095848</v>
+        <v>-0.4719325637303868</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1828.43137254902</v>
+      </c>
+      <c r="AP5">
+        <v>-1494.345559280484</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1076,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCB Bank Limited (KASE:MCB)</t>
+          <t>Meezan Bank Limited (KASE:MEBL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,13 +1085,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.05230000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="E6">
-        <v>0.0021</v>
+        <v>0.356</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1103,34 +1100,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002644360493420555</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001693773387942577</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>146.8</v>
+        <v>138.9</v>
       </c>
       <c r="L6">
-        <v>0.3150890749087787</v>
+        <v>0.3397749510763209</v>
       </c>
       <c r="M6">
-        <v>120.1</v>
+        <v>31.1</v>
       </c>
       <c r="N6">
-        <v>0.07661881977671452</v>
+        <v>0.0336981254740492</v>
       </c>
       <c r="O6">
-        <v>0.8181198910081743</v>
+        <v>0.2239020878329734</v>
       </c>
       <c r="P6">
-        <v>120.1</v>
+        <v>31.1</v>
       </c>
       <c r="Q6">
-        <v>0.07661881977671452</v>
+        <v>0.0336981254740492</v>
       </c>
       <c r="R6">
-        <v>0.8181198910081743</v>
+        <v>0.2239020878329734</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1139,67 +1136,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>380.3</v>
+        <v>711.4</v>
       </c>
       <c r="V6">
-        <v>0.242615629984051</v>
+        <v>0.7708310759562249</v>
       </c>
       <c r="W6">
-        <v>0.120992334954257</v>
+        <v>0.4434865900383142</v>
       </c>
       <c r="X6">
-        <v>0.09612053235523775</v>
+        <v>0.07997636477206078</v>
       </c>
       <c r="Y6">
-        <v>0.02487180259901925</v>
+        <v>0.3635102252662534</v>
       </c>
       <c r="Z6">
-        <v>0.6788675714937368</v>
+        <v>2.169851380042463</v>
       </c>
       <c r="AA6">
-        <v>0.001149847826533296</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07770077756067705</v>
+        <v>0.06966495379530994</v>
       </c>
       <c r="AC6">
-        <v>-0.07655092973414375</v>
+        <v>-0.06966495379530994</v>
       </c>
       <c r="AD6">
-        <v>1413.8</v>
+        <v>480.1</v>
       </c>
       <c r="AE6">
-        <v>37.68996223057682</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1451.489962230577</v>
+        <v>480.1</v>
       </c>
       <c r="AG6">
-        <v>1071.189962230577</v>
+        <v>-231.3</v>
       </c>
       <c r="AH6">
-        <v>0.4807866141953468</v>
+        <v>0.3421952957947256</v>
       </c>
       <c r="AI6">
-        <v>0.5930282378294205</v>
+        <v>0.5129273504273505</v>
       </c>
       <c r="AJ6">
-        <v>0.4059552192805033</v>
+        <v>-0.3344418739155581</v>
       </c>
       <c r="AK6">
-        <v>0.5181614489506726</v>
+        <v>-1.029830810329474</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>161.2086659064994</v>
-      </c>
-      <c r="AP6">
-        <v>122.1425270502368</v>
       </c>
     </row>
     <row r="7">
@@ -1210,7 +1201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Silkbank Limited (KASE:SILK)</t>
+          <t>MCB Bank Limited (KASE:MCB)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1219,7 +1210,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.189</v>
+        <v>0.06269999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.0355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,82 +1228,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.37</v>
+        <v>187.7</v>
       </c>
       <c r="L7">
-        <v>0.08152985074626866</v>
+        <v>0.3438358673749771</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.07262651305235525</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.5306339904102291</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.07262651305235525</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.5306339904102291</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>30.1</v>
+        <v>279.4</v>
       </c>
       <c r="V7">
-        <v>0.5462794918330308</v>
+        <v>0.2037334111127315</v>
       </c>
       <c r="W7">
-        <v>0.03829973707274321</v>
+        <v>0.189309127584468</v>
       </c>
       <c r="X7">
-        <v>0.0901191682201794</v>
+        <v>0.08402146239719128</v>
       </c>
       <c r="Y7">
-        <v>-0.05181943114743619</v>
+        <v>0.1052876651872767</v>
       </c>
       <c r="Z7">
-        <v>0.3360501567398119</v>
+        <v>0.2614370946623538</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0792762627017493</v>
+        <v>0.07070863385752077</v>
       </c>
       <c r="AC7">
-        <v>-0.0792762627017493</v>
+        <v>-0.07070863385752077</v>
       </c>
       <c r="AD7">
-        <v>40.9</v>
+        <v>875</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>40.9</v>
+        <v>875</v>
       </c>
       <c r="AG7">
-        <v>10.8</v>
+        <v>595.6</v>
       </c>
       <c r="AH7">
-        <v>0.4260416666666667</v>
+        <v>0.3895121082621082</v>
       </c>
       <c r="AI7">
-        <v>0.3103186646433991</v>
+        <v>0.4351934745847011</v>
       </c>
       <c r="AJ7">
-        <v>0.1638846737481031</v>
+        <v>0.3027961362480935</v>
       </c>
       <c r="AK7">
-        <v>0.1061946902654867</v>
+        <v>0.3440388170055453</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1335,10 +1332,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0309</v>
+        <v>0.00298</v>
       </c>
       <c r="E8">
-        <v>-0.0253</v>
+        <v>-0.0492</v>
+      </c>
+      <c r="F8">
+        <v>0.19</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1353,28 +1353,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>127.8</v>
+        <v>123.8</v>
       </c>
       <c r="L8">
-        <v>0.2649253731343283</v>
+        <v>0.262121532923989</v>
       </c>
       <c r="M8">
-        <v>95.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="N8">
-        <v>0.07332461337231669</v>
+        <v>0.0762676641729011</v>
       </c>
       <c r="O8">
-        <v>0.7456964006259781</v>
+        <v>0.592891760904685</v>
       </c>
       <c r="P8">
-        <v>95.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.07332461337231669</v>
+        <v>0.0762676641729011</v>
       </c>
       <c r="R8">
-        <v>0.7456964006259781</v>
+        <v>0.592891760904685</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1383,55 +1383,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1219.7</v>
+        <v>1341.6</v>
       </c>
       <c r="V8">
-        <v>0.9384473340001539</v>
+        <v>1.394014962593516</v>
       </c>
       <c r="W8">
-        <v>0.09800613496932516</v>
+        <v>0.10816005591473</v>
       </c>
       <c r="X8">
-        <v>0.1232792913887079</v>
+        <v>0.09556703688898459</v>
       </c>
       <c r="Y8">
-        <v>-0.0252731564193827</v>
+        <v>0.01259301902574546</v>
       </c>
       <c r="Z8">
-        <v>0.197721124682351</v>
+        <v>0.2138168319072842</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.08155299197629057</v>
+        <v>0.0730023311859839</v>
       </c>
       <c r="AC8">
-        <v>-0.08155299197629057</v>
+        <v>-0.0730023311859839</v>
       </c>
       <c r="AD8">
-        <v>2284</v>
+        <v>937.7</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>2284</v>
+        <v>937.7</v>
       </c>
       <c r="AG8">
-        <v>1064.3</v>
+        <v>-403.8999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.6373301336607418</v>
+        <v>0.4935003420872586</v>
       </c>
       <c r="AI8">
-        <v>0.6580236243157591</v>
+        <v>0.4354306942187137</v>
       </c>
       <c r="AJ8">
-        <v>0.4502115059221658</v>
+        <v>-0.7231871083258725</v>
       </c>
       <c r="AK8">
-        <v>0.4727490783103095</v>
+        <v>-0.4974750585047417</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bank Alfalah Limited (KASE:BAFL)</t>
+          <t>Allied Bank Limited (KASE:ABL)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1456,8 +1456,11 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F9">
-        <v>0.13</v>
+      <c r="D9">
+        <v>0.0674</v>
+      </c>
+      <c r="E9">
+        <v>0.0238</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1472,28 +1475,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>75.5</v>
+        <v>105.5</v>
       </c>
       <c r="L9">
-        <v>0.2419871794871795</v>
+        <v>0.2928115459339439</v>
       </c>
       <c r="M9">
-        <v>26.3</v>
+        <v>41.4</v>
       </c>
       <c r="N9">
-        <v>0.05017169019458222</v>
+        <v>0.06780216180805765</v>
       </c>
       <c r="O9">
-        <v>0.3483443708609272</v>
+        <v>0.3924170616113744</v>
       </c>
       <c r="P9">
-        <v>26.3</v>
+        <v>41.4</v>
       </c>
       <c r="Q9">
-        <v>0.05017169019458222</v>
+        <v>0.06780216180805765</v>
       </c>
       <c r="R9">
-        <v>0.3483443708609272</v>
+        <v>0.3924170616113744</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1502,55 +1505,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>130.7</v>
+        <v>212.2</v>
       </c>
       <c r="V9">
-        <v>0.249332315909958</v>
+        <v>0.3475270226007205</v>
       </c>
       <c r="W9">
-        <v>0.1327355836849508</v>
+        <v>0.1500497795477173</v>
       </c>
       <c r="X9">
-        <v>0.1435653317477619</v>
+        <v>0.1149630919913278</v>
       </c>
       <c r="Y9">
-        <v>-0.01082974806281109</v>
+        <v>0.03508668755638943</v>
       </c>
       <c r="Z9">
-        <v>0.6320907617504053</v>
+        <v>0.1408357112144784</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.08319341144036757</v>
+        <v>0.07548799245336528</v>
       </c>
       <c r="AC9">
-        <v>-0.08319341144036757</v>
+        <v>-0.07548799245336528</v>
       </c>
       <c r="AD9">
-        <v>1246.7</v>
+        <v>939.9</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1246.7</v>
+        <v>939.9</v>
       </c>
       <c r="AG9">
-        <v>1116</v>
+        <v>727.7</v>
       </c>
       <c r="AH9">
-        <v>0.7039923202891185</v>
+        <v>0.6061915511125443</v>
       </c>
       <c r="AI9">
-        <v>0.6969087148527028</v>
+        <v>0.556614947293616</v>
       </c>
       <c r="AJ9">
-        <v>0.6804048286794293</v>
+        <v>0.5437495329896137</v>
       </c>
       <c r="AK9">
-        <v>0.6730189361958751</v>
+        <v>0.4928881062042807</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Allied Bank Limited (KASE:ABL)</t>
+          <t>National Bank of Pakistan (KASE:NBP)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1576,10 +1579,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0513</v>
+        <v>0.0883</v>
       </c>
       <c r="E10">
-        <v>-0.0697</v>
+        <v>0.116</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1588,34 +1591,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005117611930628554</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.002992407267072987</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>80.40000000000001</v>
+        <v>157.4</v>
       </c>
       <c r="L10">
-        <v>0.2591876208897486</v>
+        <v>0.2377284398127171</v>
       </c>
       <c r="M10">
-        <v>58.6</v>
+        <v>0.01</v>
       </c>
       <c r="N10">
-        <v>0.08294409058740269</v>
+        <v>1.751620248730075e-05</v>
       </c>
       <c r="O10">
-        <v>0.7288557213930348</v>
+        <v>6.353240152477763e-05</v>
       </c>
       <c r="P10">
-        <v>58.6</v>
+        <v>0.01</v>
       </c>
       <c r="Q10">
-        <v>0.08294409058740269</v>
+        <v>1.751620248730075e-05</v>
       </c>
       <c r="R10">
-        <v>0.7288557213930348</v>
+        <v>6.353240152477763e-05</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1624,67 +1627,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>257.7</v>
+        <v>1543.1</v>
       </c>
       <c r="V10">
-        <v>0.3647558386411889</v>
+        <v>2.702925205815379</v>
       </c>
       <c r="W10">
-        <v>0.0910429169969426</v>
+        <v>0.108995221937539</v>
       </c>
       <c r="X10">
-        <v>0.1650346804893865</v>
+        <v>0.1174773634898548</v>
       </c>
       <c r="Y10">
-        <v>-0.07399176349244389</v>
+        <v>-0.008482141552315817</v>
       </c>
       <c r="Z10">
-        <v>0.1825605171276889</v>
+        <v>0.1452961443086309</v>
       </c>
       <c r="AA10">
-        <v>0.000546295418133499</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.08437964564445345</v>
+        <v>0.07573149210095098</v>
       </c>
       <c r="AC10">
-        <v>-0.08383335022631995</v>
+        <v>-0.07573149210095098</v>
       </c>
       <c r="AD10">
-        <v>2112.9</v>
+        <v>920.6</v>
       </c>
       <c r="AE10">
-        <v>31.66258389559511</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>2144.562583895595</v>
+        <v>920.6</v>
       </c>
       <c r="AG10">
-        <v>1886.862583895595</v>
+        <v>-622.4999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.7521976529064254</v>
+        <v>0.617230975527992</v>
       </c>
       <c r="AI10">
-        <v>0.7530957480790575</v>
+        <v>0.3576951470645375</v>
       </c>
       <c r="AJ10">
-        <v>0.7275737668202426</v>
+        <v>12.06395348837211</v>
       </c>
       <c r="AK10">
-        <v>0.728528896760177</v>
+        <v>-0.6040170774306228</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>266.7803030303031</v>
-      </c>
-      <c r="AP10">
-        <v>238.2402252393428</v>
       </c>
     </row>
     <row r="11">
@@ -1704,10 +1701,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0505</v>
+        <v>0.0634</v>
       </c>
       <c r="E11">
-        <v>-0.17</v>
+        <v>-0.0215</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1722,28 +1719,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>70.8</v>
+        <v>192.3</v>
       </c>
       <c r="L11">
-        <v>0.1006969136680415</v>
+        <v>0.2147643511279875</v>
       </c>
       <c r="M11">
-        <v>48.8</v>
+        <v>32.9</v>
       </c>
       <c r="N11">
-        <v>0.03274508488223848</v>
+        <v>0.0271474544104299</v>
       </c>
       <c r="O11">
-        <v>0.6892655367231638</v>
+        <v>0.1710868434737389</v>
       </c>
       <c r="P11">
-        <v>48.8</v>
+        <v>32.9</v>
       </c>
       <c r="Q11">
-        <v>0.03274508488223848</v>
+        <v>0.0271474544104299</v>
       </c>
       <c r="R11">
-        <v>0.6892655367231638</v>
+        <v>0.1710868434737389</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1752,55 +1749,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1374.6</v>
+        <v>1437.9</v>
       </c>
       <c r="V11">
-        <v>0.9223646245722338</v>
+        <v>1.186484033336084</v>
       </c>
       <c r="W11">
-        <v>0.04580448987513747</v>
+        <v>0.1436253641048622</v>
       </c>
       <c r="X11">
-        <v>0.1307423328927607</v>
+        <v>0.1284024857827408</v>
       </c>
       <c r="Y11">
-        <v>-0.08493784301762322</v>
+        <v>0.01522287832212141</v>
       </c>
       <c r="Z11">
-        <v>0.5942861972783364</v>
+        <v>0.3080999242997728</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.08502915325190606</v>
+        <v>0.07664823113767219</v>
       </c>
       <c r="AC11">
-        <v>-0.08502915325190606</v>
+        <v>-0.07664823113767219</v>
       </c>
       <c r="AD11">
-        <v>2959.4</v>
+        <v>2339.9</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>2959.4</v>
+        <v>2339.9</v>
       </c>
       <c r="AG11">
-        <v>1584.8</v>
+        <v>902</v>
       </c>
       <c r="AH11">
-        <v>0.6650785446209857</v>
+        <v>0.6587927248155865</v>
       </c>
       <c r="AI11">
-        <v>0.6840961627369394</v>
+        <v>0.6008988186954289</v>
       </c>
       <c r="AJ11">
-        <v>0.5153653539722285</v>
+        <v>0.42669946544302</v>
       </c>
       <c r="AK11">
-        <v>0.5369655078945585</v>
+        <v>0.3672488905174871</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1817,7 +1814,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bank AL Habib Limited (KASE:BAHL)</t>
+          <t>Faysal Bank Limited (KASE:FABL)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1826,10 +1823,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.161</v>
+        <v>0.11</v>
       </c>
       <c r="E12">
-        <v>0.09669999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1844,28 +1841,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>60.9</v>
+        <v>43</v>
       </c>
       <c r="L12">
-        <v>0.2157279489904357</v>
+        <v>0.2278749337572867</v>
       </c>
       <c r="M12">
-        <v>17.8</v>
+        <v>0.002</v>
       </c>
       <c r="N12">
-        <v>0.03258282994691562</v>
+        <v>1.221001221001221e-05</v>
       </c>
       <c r="O12">
-        <v>0.2922824302134647</v>
+        <v>4.651162790697675e-05</v>
       </c>
       <c r="P12">
-        <v>17.8</v>
+        <v>0.002</v>
       </c>
       <c r="Q12">
-        <v>0.03258282994691562</v>
+        <v>1.221001221001221e-05</v>
       </c>
       <c r="R12">
-        <v>0.2922824302134647</v>
+        <v>4.651162790697675e-05</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1874,55 +1871,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>247.1</v>
+        <v>199.8</v>
       </c>
       <c r="V12">
-        <v>0.4523155775215084</v>
+        <v>1.21978021978022</v>
       </c>
       <c r="W12">
-        <v>0.1569992266047951</v>
+        <v>0.1405228758169935</v>
       </c>
       <c r="X12">
-        <v>0.1828802118612123</v>
+        <v>0.1681074771522405</v>
       </c>
       <c r="Y12">
-        <v>-0.02588098525641722</v>
+        <v>-0.02758460133524707</v>
       </c>
       <c r="Z12">
-        <v>0.6994549058473736</v>
+        <v>0.2520806337416674</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.08510666910949136</v>
+        <v>0.07877779689368951</v>
       </c>
       <c r="AC12">
-        <v>-0.08510666910949136</v>
+        <v>-0.07877779689368951</v>
       </c>
       <c r="AD12">
-        <v>1956.7</v>
+        <v>505.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1956.7</v>
+        <v>505.7</v>
       </c>
       <c r="AG12">
-        <v>1709.6</v>
+        <v>305.9</v>
       </c>
       <c r="AH12">
-        <v>0.78174190970835</v>
+        <v>0.7553398058252427</v>
       </c>
       <c r="AI12">
-        <v>0.8463235294117647</v>
+        <v>0.5850977669790582</v>
       </c>
       <c r="AJ12">
-        <v>0.7578350104171284</v>
+        <v>0.6512667660208643</v>
       </c>
       <c r="AK12">
-        <v>0.8279335561044119</v>
+        <v>0.4603461249059443</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1939,7 +1936,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Habib Metropolitan Bank Limited (KASE:HMB)</t>
+          <t>Askari Bank Limited (KASE:AKBL)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1948,10 +1945,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.132</v>
+        <v>0.123</v>
       </c>
       <c r="E13">
-        <v>0.106</v>
+        <v>0.174</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1960,34 +1957,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003656892335228965</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.00216221015059173</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>42.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L13">
-        <v>0.2685069008782936</v>
+        <v>0.2957937584803257</v>
       </c>
       <c r="M13">
-        <v>14.8</v>
+        <v>11.3</v>
       </c>
       <c r="N13">
-        <v>0.06021155410903174</v>
+        <v>0.06137968495382944</v>
       </c>
       <c r="O13">
-        <v>0.3457943925233645</v>
+        <v>0.172782874617737</v>
       </c>
       <c r="P13">
-        <v>14.8</v>
+        <v>11.3</v>
       </c>
       <c r="Q13">
-        <v>0.06021155410903174</v>
+        <v>0.06137968495382944</v>
       </c>
       <c r="R13">
-        <v>0.3457943925233645</v>
+        <v>0.172782874617737</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1996,67 +1993,61 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>212.4</v>
+        <v>168.5</v>
       </c>
       <c r="V13">
-        <v>0.8641171684296176</v>
+        <v>0.915263443780554</v>
       </c>
       <c r="W13">
-        <v>0.1363491557820962</v>
+        <v>0.2693574958813839</v>
       </c>
       <c r="X13">
-        <v>0.2176317096176046</v>
+        <v>0.1861639838360777</v>
       </c>
       <c r="Y13">
-        <v>-0.08128255383550834</v>
+        <v>0.08319351204530614</v>
       </c>
       <c r="Z13">
-        <v>0.2322394864370792</v>
+        <v>0.281763731362304</v>
       </c>
       <c r="AA13">
-        <v>0.0005021505749424629</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.08611868124735979</v>
+        <v>0.07939305035194028</v>
       </c>
       <c r="AC13">
-        <v>-0.08561653067241733</v>
+        <v>-0.07939305035194028</v>
       </c>
       <c r="AD13">
-        <v>1141.2</v>
+        <v>665.2</v>
       </c>
       <c r="AE13">
-        <v>0.6604568088225143</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1141.860456808823</v>
+        <v>665.2</v>
       </c>
       <c r="AG13">
-        <v>929.4604568088226</v>
+        <v>496.7</v>
       </c>
       <c r="AH13">
-        <v>0.8228673312740628</v>
+        <v>0.7832332509125162</v>
       </c>
       <c r="AI13">
-        <v>0.8009905517195149</v>
+        <v>0.6835182901767366</v>
       </c>
       <c r="AJ13">
-        <v>0.7908548708705649</v>
+        <v>0.7295828437132785</v>
       </c>
       <c r="AK13">
-        <v>0.7661479992957707</v>
+        <v>0.6172486640984218</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>1596.083916083916</v>
-      </c>
-      <c r="AP13">
-        <v>1299.944694837514</v>
       </c>
     </row>
     <row r="14">
@@ -2067,7 +2058,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Faysal Bank Limited (KASE:FABL)</t>
+          <t>Bank AL Habib Limited (KASE:BAHL)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2076,10 +2067,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.122</v>
+        <v>0.183</v>
       </c>
       <c r="E14">
-        <v>0.238</v>
+        <v>0.195</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2088,100 +2079,97 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.00377476925450294</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.002264861552701764</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>36.5</v>
+        <v>105.1</v>
       </c>
       <c r="L14">
-        <v>0.2192192192192192</v>
+        <v>0.2833647883526557</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>23.2</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>0.04801324503311259</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>0.2207421503330162</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>23.2</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.04801324503311259</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0.2207421503330162</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
-        <v>131.6</v>
+        <v>381</v>
       </c>
       <c r="V14">
-        <v>0.706387546967257</v>
+        <v>0.7884933774834437</v>
       </c>
       <c r="W14">
-        <v>0.1065071491100088</v>
+        <v>0.2962232243517474</v>
       </c>
       <c r="X14">
-        <v>0.1763159356317513</v>
+        <v>0.1966491631182194</v>
       </c>
       <c r="Y14">
-        <v>-0.06980878652174254</v>
+        <v>0.09957406123352799</v>
       </c>
       <c r="Z14">
-        <v>0.442416155584818</v>
+        <v>0.1794301194910744</v>
       </c>
       <c r="AA14">
-        <v>-0.001002011341078176</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.08486032213093334</v>
+        <v>0.07968993342348844</v>
       </c>
       <c r="AC14">
-        <v>-0.08586233347201151</v>
+        <v>-0.07968993342348844</v>
       </c>
       <c r="AD14">
-        <v>575.7</v>
+        <v>1893.5</v>
       </c>
       <c r="AE14">
-        <v>54.14249540437369</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>629.8424954043737</v>
+        <v>1893.5</v>
       </c>
       <c r="AG14">
-        <v>498.2424954043737</v>
+        <v>1512.5</v>
       </c>
       <c r="AH14">
-        <v>0.7717310383308812</v>
+        <v>0.796692893507805</v>
       </c>
       <c r="AI14">
-        <v>0.6730219011183302</v>
+        <v>0.8024665197491101</v>
       </c>
       <c r="AJ14">
-        <v>0.7278474291213306</v>
+        <v>0.7578794407977151</v>
       </c>
       <c r="AK14">
-        <v>0.6195177427846026</v>
+        <v>0.7644293945213788</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>56.44117647058825</v>
-      </c>
-      <c r="AP14">
-        <v>48.84730347101704</v>
       </c>
     </row>
     <row r="15">
@@ -2192,7 +2180,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Askari Bank Limited (KASE:AKBL)</t>
+          <t>Bank Alfalah Limited (KASE:BAFL)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2201,13 +2189,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.146</v>
+        <v>0.0848</v>
       </c>
       <c r="E15">
-        <v>0.259</v>
-      </c>
-      <c r="F15">
-        <v>0.2</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2222,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L15">
-        <v>0.2019464720194647</v>
+        <v>0.2310106716886378</v>
       </c>
       <c r="M15">
-        <v>7.99</v>
+        <v>43.7</v>
       </c>
       <c r="N15">
-        <v>0.0529840848806366</v>
+        <v>0.1114227434982152</v>
       </c>
       <c r="O15">
-        <v>0.2406626506024096</v>
+        <v>0.5937500000000001</v>
       </c>
       <c r="P15">
-        <v>7.99</v>
+        <v>43.7</v>
       </c>
       <c r="Q15">
-        <v>0.0529840848806366</v>
+        <v>0.1114227434982152</v>
       </c>
       <c r="R15">
-        <v>0.2406626506024096</v>
+        <v>0.5937500000000001</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2252,55 +2237,55 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>130.2</v>
+        <v>125.7</v>
       </c>
       <c r="V15">
-        <v>0.8633952254641909</v>
+        <v>0.320499745028047</v>
       </c>
       <c r="W15">
-        <v>0.1201592471950778</v>
+        <v>0.1367775506411447</v>
       </c>
       <c r="X15">
-        <v>0.2114707331171775</v>
+        <v>0.1971479982693807</v>
       </c>
       <c r="Y15">
-        <v>-0.09131148592209971</v>
+        <v>-0.06037044762823598</v>
       </c>
       <c r="Z15">
-        <v>0.497428139183056</v>
+        <v>0.1926122967172481</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.08596803938541481</v>
+        <v>0.07970314167922694</v>
       </c>
       <c r="AC15">
-        <v>-0.08596803938541481</v>
+        <v>-0.07970314167922694</v>
       </c>
       <c r="AD15">
-        <v>672.1</v>
+        <v>1542.6</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>672.1</v>
+        <v>1542.6</v>
       </c>
       <c r="AG15">
-        <v>541.9000000000001</v>
+        <v>1416.9</v>
       </c>
       <c r="AH15">
-        <v>0.8167456556082148</v>
+        <v>0.7972917097374406</v>
       </c>
       <c r="AI15">
-        <v>0.734375</v>
+        <v>0.7284661881375142</v>
       </c>
       <c r="AJ15">
-        <v>0.7823011404648478</v>
+        <v>0.7832071195622132</v>
       </c>
       <c r="AK15">
-        <v>0.6903184713375796</v>
+        <v>0.7113308901049249</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2317,7 +2302,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Soneri Bank Limited (KASE:SNBL)</t>
+          <t>Habib Metropolitan Bank Limited (KASE:HMB)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2326,10 +2311,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.0689</v>
+        <v>0.0801</v>
       </c>
       <c r="E16">
-        <v>0.0664</v>
+        <v>0.0487</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2344,28 +2329,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.9</v>
+        <v>59.9</v>
       </c>
       <c r="L16">
-        <v>0.1572871572871573</v>
+        <v>0.318278427205101</v>
       </c>
       <c r="M16">
-        <v>7.06</v>
+        <v>17.3</v>
       </c>
       <c r="N16">
-        <v>0.1007132667617689</v>
+        <v>0.06778996865203762</v>
       </c>
       <c r="O16">
-        <v>0.6477064220183486</v>
+        <v>0.2888146911519199</v>
       </c>
       <c r="P16">
-        <v>7.06</v>
+        <v>17.3</v>
       </c>
       <c r="Q16">
-        <v>0.1007132667617689</v>
+        <v>0.06778996865203762</v>
       </c>
       <c r="R16">
-        <v>0.6477064220183486</v>
+        <v>0.2888146911519199</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2374,55 +2359,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>64.7</v>
+        <v>236.6</v>
       </c>
       <c r="V16">
-        <v>0.9229671897289587</v>
+        <v>0.927115987460815</v>
       </c>
       <c r="W16">
-        <v>0.07425068119891008</v>
+        <v>0.227410782080486</v>
       </c>
       <c r="X16">
-        <v>0.5187112583511169</v>
+        <v>0.2115891221223382</v>
       </c>
       <c r="Y16">
-        <v>-0.4444605771522068</v>
+        <v>0.01582165995814777</v>
       </c>
       <c r="Z16">
-        <v>0.1420373027259684</v>
+        <v>0.1578594195604764</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.0888217479624228</v>
+        <v>0.080054436263887</v>
       </c>
       <c r="AC16">
-        <v>-0.0888217479624228</v>
+        <v>-0.080054436263887</v>
       </c>
       <c r="AD16">
-        <v>971.7</v>
+        <v>1111.1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>971.7</v>
+        <v>1111.1</v>
       </c>
       <c r="AG16">
-        <v>907</v>
+        <v>874.4999999999999</v>
       </c>
       <c r="AH16">
-        <v>0.9327126127855635</v>
+        <v>0.8132181804874478</v>
       </c>
       <c r="AI16">
-        <v>0.8909774436090225</v>
+        <v>0.7502869876426498</v>
       </c>
       <c r="AJ16">
-        <v>0.9282570872991506</v>
+        <v>0.7740993184031159</v>
       </c>
       <c r="AK16">
-        <v>0.884101764304513</v>
+        <v>0.7028047898416779</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2439,7 +2424,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Bank of Khyber (KASE:BOK)</t>
+          <t>The Bank of Punjab (KASE:BOP)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2448,10 +2433,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0123</v>
+        <v>0.17</v>
       </c>
       <c r="E17">
-        <v>-0.35</v>
+        <v>0.119</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2466,28 +2451,28 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.872</v>
+        <v>47</v>
       </c>
       <c r="L17">
-        <v>0.03070422535211268</v>
+        <v>0.2540540540540541</v>
       </c>
       <c r="M17">
-        <v>0.001</v>
+        <v>12</v>
       </c>
       <c r="N17">
-        <v>1.142857142857143e-05</v>
+        <v>0.07838014369693011</v>
       </c>
       <c r="O17">
-        <v>0.001146788990825688</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="P17">
-        <v>0.001</v>
+        <v>12</v>
       </c>
       <c r="Q17">
-        <v>1.142857142857143e-05</v>
+        <v>0.07838014369693011</v>
       </c>
       <c r="R17">
-        <v>0.001146788990825688</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2496,55 +2481,55 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>32.1</v>
+        <v>175.7</v>
       </c>
       <c r="V17">
-        <v>0.3668571428571429</v>
+        <v>1.147615937295885</v>
       </c>
       <c r="W17">
-        <v>0.008</v>
+        <v>0.1734957548911037</v>
       </c>
       <c r="X17">
-        <v>0.2727839749612838</v>
+        <v>0.2931959947642083</v>
       </c>
       <c r="Y17">
-        <v>-0.2647839749612838</v>
+        <v>-0.1197002398731045</v>
       </c>
       <c r="Z17">
-        <v>0.2423208191126279</v>
+        <v>0.2036547776309995</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.09074940016621313</v>
+        <v>0.08132120087132774</v>
       </c>
       <c r="AC17">
-        <v>-0.09074940016621313</v>
+        <v>-0.08132120087132774</v>
       </c>
       <c r="AD17">
-        <v>554.2</v>
+        <v>1030.5</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>554.2</v>
+        <v>1030.5</v>
       </c>
       <c r="AG17">
-        <v>522.1</v>
+        <v>854.8</v>
       </c>
       <c r="AH17">
-        <v>0.8636434470936575</v>
+        <v>0.8706488678607638</v>
       </c>
       <c r="AI17">
-        <v>0.8706991358994501</v>
+        <v>0.7686283284851196</v>
       </c>
       <c r="AJ17">
-        <v>0.8564632545931758</v>
+        <v>0.8481000099216192</v>
       </c>
       <c r="AK17">
-        <v>0.863831899404368</v>
+        <v>0.7337339055793991</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2561,7 +2546,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>National Bank of Pakistan (KASE:NBP)</t>
+          <t>Soneri Bank Limited (KASE:SNBL)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2570,10 +2555,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.09449999999999999</v>
+        <v>0.0679</v>
       </c>
       <c r="E18">
-        <v>0.118</v>
+        <v>0.0408</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2588,28 +2573,28 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>130.4</v>
+        <v>15.1</v>
       </c>
       <c r="L18">
-        <v>0.2092426187419769</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="M18">
-        <v>0.011</v>
+        <v>6.65</v>
       </c>
       <c r="N18">
-        <v>1.849983181971073e-05</v>
+        <v>0.09708029197080292</v>
       </c>
       <c r="O18">
-        <v>8.435582822085889e-05</v>
+        <v>0.4403973509933775</v>
       </c>
       <c r="P18">
-        <v>0.011</v>
+        <v>6.65</v>
       </c>
       <c r="Q18">
-        <v>1.849983181971073e-05</v>
+        <v>0.09708029197080292</v>
       </c>
       <c r="R18">
-        <v>8.435582822085889e-05</v>
+        <v>0.4403973509933775</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2618,55 +2603,55 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1290.5</v>
+        <v>66.2</v>
       </c>
       <c r="V18">
-        <v>2.170366633030609</v>
+        <v>0.9664233576642336</v>
       </c>
       <c r="W18">
-        <v>0.08433033693332471</v>
+        <v>0.1269974768713204</v>
       </c>
       <c r="X18">
-        <v>0.3079950739616267</v>
+        <v>0.4079839661668815</v>
       </c>
       <c r="Y18">
-        <v>-0.223664737028302</v>
+        <v>-0.2809864892955611</v>
       </c>
       <c r="Z18">
-        <v>0.2120449132357945</v>
+        <v>0.07622575299736815</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.09125273887833539</v>
+        <v>0.08218260846950001</v>
       </c>
       <c r="AC18">
-        <v>-0.09125273887833539</v>
+        <v>-0.08218260846950001</v>
       </c>
       <c r="AD18">
-        <v>4406.9</v>
+        <v>690.1</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>4406.9</v>
+        <v>690.1</v>
       </c>
       <c r="AG18">
-        <v>3116.4</v>
+        <v>623.9</v>
       </c>
       <c r="AH18">
-        <v>0.8811156653004099</v>
+        <v>0.9097020827840759</v>
       </c>
       <c r="AI18">
-        <v>0.7524544538733416</v>
+        <v>0.8394355917771561</v>
       </c>
       <c r="AJ18">
-        <v>0.8397736459175424</v>
+        <v>0.9010687463893703</v>
       </c>
       <c r="AK18">
-        <v>0.6824931014848232</v>
+        <v>0.8253737266834237</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2692,10 +2677,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.127</v>
+        <v>0.102</v>
       </c>
       <c r="E19">
-        <v>0.218</v>
+        <v>0.284</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2704,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.01721452843537801</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-0.009887683688089021</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.17</v>
+        <v>6.57</v>
       </c>
       <c r="L19">
-        <v>0.1820960698689957</v>
+        <v>0.2313380281690141</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2737,67 +2722,61 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="V19">
-        <v>0.3416506717850288</v>
+        <v>0.3305084745762711</v>
       </c>
       <c r="W19">
-        <v>0.04025096525096526</v>
+        <v>0.07595375722543353</v>
       </c>
       <c r="X19">
-        <v>0.2710499298524596</v>
+        <v>0.2774137056298432</v>
       </c>
       <c r="Y19">
-        <v>-0.2307989646014944</v>
+        <v>-0.2014599484044097</v>
       </c>
       <c r="Z19">
-        <v>0.07052206516189667</v>
+        <v>0.0739198334200937</v>
       </c>
       <c r="AA19">
-        <v>-0.0006972998733516367</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.09301540909680238</v>
+        <v>0.08484081633718406</v>
       </c>
       <c r="AC19">
-        <v>-0.09371270897015402</v>
+        <v>-0.08484081633718406</v>
       </c>
       <c r="AD19">
-        <v>315.5</v>
+        <v>296</v>
       </c>
       <c r="AE19">
-        <v>11.72106350585078</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>327.2210635058508</v>
+        <v>296</v>
       </c>
       <c r="AG19">
-        <v>309.4210635058508</v>
+        <v>280.4</v>
       </c>
       <c r="AH19">
-        <v>0.8626493358463433</v>
+        <v>0.8624708624708625</v>
       </c>
       <c r="AI19">
-        <v>0.7909219335679855</v>
+        <v>0.7621009268795057</v>
       </c>
       <c r="AJ19">
-        <v>0.8558866819687898</v>
+        <v>0.855921855921856</v>
       </c>
       <c r="AK19">
-        <v>0.7815221063662309</v>
+        <v>0.7521459227467812</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>161.7948717948718</v>
-      </c>
-      <c r="AP19">
-        <v>158.6774684645389</v>
       </c>
     </row>
     <row r="20">
@@ -2808,7 +2787,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Bank of Punjab (KASE:BOP)</t>
+          <t>Silkbank Limited (KASE:SILK)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2817,10 +2796,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.227</v>
-      </c>
-      <c r="E20">
-        <v>0.25</v>
+        <v>0.0424</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2829,103 +2805,94 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.01545589071353788</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.009235199637175961</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>52.1</v>
+        <v>-6.23</v>
       </c>
       <c r="L20">
-        <v>0.2888026607538803</v>
+        <v>-0.154590570719603</v>
       </c>
       <c r="M20">
-        <v>12.7</v>
+        <v>-0</v>
       </c>
       <c r="N20">
-        <v>0.06570098292809104</v>
+        <v>-0</v>
       </c>
       <c r="O20">
-        <v>0.2437619961612284</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.7</v>
+        <v>-0</v>
       </c>
       <c r="Q20">
-        <v>0.06570098292809104</v>
+        <v>-0</v>
       </c>
       <c r="R20">
-        <v>0.2437619961612284</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
-        <v>190</v>
+        <v>28.5</v>
       </c>
       <c r="V20">
-        <v>0.982928091050181</v>
+        <v>0.4649265905383361</v>
       </c>
       <c r="W20">
-        <v>0.184294304916873</v>
+        <v>-0.08306666666666668</v>
       </c>
       <c r="X20">
-        <v>0.2134097495223335</v>
+        <v>0.4524721594147877</v>
       </c>
       <c r="Y20">
-        <v>-0.02911544460546051</v>
+        <v>-0.5355388260814544</v>
       </c>
       <c r="Z20">
-        <v>0.6244565137932155</v>
+        <v>0.1175955646337905</v>
       </c>
       <c r="AA20">
-        <v>-0.00576698056961527</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.08945517422015861</v>
+        <v>0.08633445454626874</v>
       </c>
       <c r="AC20">
-        <v>-0.09522215478977389</v>
+        <v>-0.08633445454626874</v>
       </c>
       <c r="AD20">
-        <v>827.5</v>
+        <v>697</v>
       </c>
       <c r="AE20">
-        <v>45.49121342361116</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>872.9912134236112</v>
+        <v>697</v>
       </c>
       <c r="AG20">
-        <v>682.9912134236112</v>
+        <v>668.5</v>
       </c>
       <c r="AH20">
-        <v>0.8187174408205437</v>
+        <v>0.9191612818145853</v>
       </c>
       <c r="AI20">
-        <v>0.7613796470818429</v>
+        <v>0.9290855771794188</v>
       </c>
       <c r="AJ20">
-        <v>0.779411231062343</v>
+        <v>0.9160043847629488</v>
       </c>
       <c r="AK20">
-        <v>0.7139844103096098</v>
+        <v>0.9262851600387972</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>131.1410459587956</v>
-      </c>
-      <c r="AP20">
-        <v>108.2394949958179</v>
       </c>
     </row>
     <row r="21">
@@ -2936,7 +2903,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BankIslami Pakistan Limited (KASE:BIPL)</t>
+          <t>The Bank of Khyber (KASE:BOK)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2945,10 +2912,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.204</v>
+        <v>0.0935</v>
       </c>
       <c r="E21">
-        <v>0.289</v>
+        <v>0.0697</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2957,100 +2924,97 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-0.05250106502777648</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>-0.03301338156831368</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>7.46</v>
+        <v>14.2</v>
       </c>
       <c r="L21">
-        <v>0.127958833619211</v>
+        <v>0.2915811088295688</v>
       </c>
       <c r="M21">
-        <v>-0</v>
+        <v>3.02</v>
       </c>
       <c r="N21">
-        <v>-0</v>
+        <v>0.03226495726495727</v>
       </c>
       <c r="O21">
-        <v>-0</v>
+        <v>0.2126760563380282</v>
       </c>
       <c r="P21">
-        <v>-0</v>
+        <v>3.02</v>
       </c>
       <c r="Q21">
-        <v>-0</v>
+        <v>0.03226495726495727</v>
       </c>
       <c r="R21">
-        <v>-0</v>
+        <v>0.2126760563380282</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
       <c r="U21">
-        <v>71.40000000000001</v>
+        <v>54.8</v>
       </c>
       <c r="V21">
-        <v>0.8992443324937027</v>
+        <v>0.5854700854700855</v>
       </c>
       <c r="W21">
-        <v>0.06660714285714285</v>
+        <v>0.1725394896719319</v>
       </c>
       <c r="X21">
-        <v>0.08776014578478158</v>
+        <v>0.2418784442509074</v>
       </c>
       <c r="Y21">
-        <v>-0.02115300292763873</v>
+        <v>-0.06933895457897543</v>
       </c>
       <c r="Z21">
-        <v>1.996297743892221</v>
+        <v>0.08057577763070815</v>
       </c>
       <c r="AA21">
-        <v>-0.06590453914307763</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.07849533230617972</v>
+        <v>0.08652069330753845</v>
       </c>
       <c r="AC21">
-        <v>-0.1443998714492574</v>
+        <v>-0.08652069330753845</v>
       </c>
       <c r="AD21">
-        <v>32.1</v>
+        <v>490.1</v>
       </c>
       <c r="AE21">
-        <v>21.10406045559684</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>53.20406045559685</v>
+        <v>490.1</v>
       </c>
       <c r="AG21">
-        <v>-18.19593954440316</v>
+        <v>435.3</v>
       </c>
       <c r="AH21">
-        <v>0.4012249720921064</v>
+        <v>0.8396436525612472</v>
       </c>
       <c r="AI21">
-        <v>0.3386549036435261</v>
+        <v>0.823835938813246</v>
       </c>
       <c r="AJ21">
-        <v>-0.2972995485749544</v>
+        <v>0.8230289279636983</v>
       </c>
       <c r="AK21">
-        <v>-0.2123112889596456</v>
+        <v>0.8059618589150157</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>27.67241379310345</v>
-      </c>
-      <c r="AP21">
-        <v>-15.6861547796579</v>
       </c>
     </row>
   </sheetData>
